--- a/Background/LHQ3/LHQ3 results raw.xlsx
+++ b/Background/LHQ3/LHQ3 results raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/chath1626_uit_no/Documents/LESS-Project-with-RAs-2/Background/LHQ3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_1BCBA99251AA9A10B0C00D2B08C520B8B10C58C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{287D8470-88E2-42C4-AC7A-8AC5FEE9A8EA}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_1BCBA99251AA9A10B0C00D2B08C520B8B10C58C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6FCBD80-A7C4-4404-8874-5F6410DABFEE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -803,11 +803,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,6 +823,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1144,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DG1" workbookViewId="0">
-      <selection activeCell="DO32" sqref="DO32"/>
+    <sheetView tabSelected="1" topLeftCell="KO2" workbookViewId="0">
+      <selection activeCell="JR2" sqref="JR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,318 +1436,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:308" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="5"/>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="5"/>
-      <c r="BU1" s="5"/>
-      <c r="BV1" s="5"/>
-      <c r="BW1" s="5"/>
-      <c r="BX1" s="5"/>
-      <c r="BY1" s="5"/>
-      <c r="BZ1" s="5"/>
-      <c r="CA1" s="5"/>
-      <c r="CB1" s="5"/>
-      <c r="CC1" s="5"/>
-      <c r="CD1" s="5"/>
-      <c r="CE1" s="5"/>
-      <c r="CF1" s="5"/>
-      <c r="CG1" s="5"/>
-      <c r="CH1" s="5"/>
-      <c r="CI1" s="5"/>
-      <c r="CJ1" s="5"/>
-      <c r="CK1" s="5"/>
-      <c r="CL1" s="5"/>
-      <c r="CM1" s="5"/>
-      <c r="CN1" s="5"/>
-      <c r="CO1" s="5"/>
-      <c r="CP1" s="5"/>
-      <c r="CQ1" s="5"/>
-      <c r="CR1" s="5"/>
-      <c r="CS1" s="5"/>
-      <c r="CT1" s="5"/>
-      <c r="CU1" s="5"/>
-      <c r="CV1" s="5"/>
-      <c r="CW1" s="5"/>
-      <c r="CX1" s="5"/>
-      <c r="CY1" s="5"/>
-      <c r="CZ1" s="5"/>
-      <c r="DA1" s="5"/>
-      <c r="DB1" s="5"/>
-      <c r="DC1" s="5"/>
-      <c r="DD1" s="5"/>
-      <c r="DE1" s="5"/>
-      <c r="DF1" s="5"/>
-      <c r="DG1" s="5"/>
-      <c r="DH1" s="5"/>
-      <c r="DI1" s="5"/>
-      <c r="DJ1" s="5"/>
-      <c r="DK1" s="5"/>
-      <c r="DL1" s="5"/>
-      <c r="DM1" s="5"/>
-      <c r="DN1" s="5"/>
-      <c r="DO1" s="5"/>
-      <c r="DP1" s="5"/>
-      <c r="DQ1" s="5"/>
-      <c r="DR1" s="5"/>
-      <c r="DS1" s="5"/>
-      <c r="DT1" s="5"/>
-      <c r="DU1" s="5"/>
-      <c r="DV1" s="5"/>
-      <c r="DW1" s="5"/>
-      <c r="DX1" s="5"/>
-      <c r="DY1" s="5"/>
-      <c r="DZ1" s="5"/>
-      <c r="EA1" s="5"/>
-      <c r="EB1" s="5"/>
-      <c r="EC1" s="5"/>
-      <c r="ED1" s="5"/>
-      <c r="EE1" s="5"/>
-      <c r="EF1" s="5"/>
-      <c r="EG1" s="5"/>
-      <c r="EH1" s="5"/>
-      <c r="EI1" s="5"/>
-      <c r="EJ1" s="5"/>
-      <c r="EK1" s="5"/>
-      <c r="EL1" s="5"/>
-      <c r="EM1" s="5"/>
-      <c r="EN1" s="5"/>
-      <c r="EO1" s="5"/>
-      <c r="EP1" s="5"/>
-      <c r="EQ1" s="5"/>
-      <c r="ER1" s="5"/>
-      <c r="ES1" s="5"/>
-      <c r="ET1" s="5"/>
-      <c r="EU1" s="5"/>
-      <c r="EV1" s="5"/>
-      <c r="EW1" s="5"/>
-      <c r="EX1" s="5"/>
-      <c r="EY1" s="5"/>
-      <c r="EZ1" s="5"/>
-      <c r="FA1" s="5"/>
-      <c r="FB1" s="5"/>
-      <c r="FC1" s="5"/>
-      <c r="FD1" s="5"/>
-      <c r="FE1" s="5"/>
-      <c r="FF1" s="5"/>
-      <c r="FG1" s="5"/>
-      <c r="FH1" s="5"/>
-      <c r="FI1" s="5"/>
-      <c r="FJ1" s="5"/>
-      <c r="FK1" s="5"/>
-      <c r="FL1" s="5"/>
-      <c r="FM1" s="5"/>
-      <c r="FN1" s="5"/>
-      <c r="FO1" s="5"/>
-      <c r="FP1" s="5"/>
-      <c r="FQ1" s="5"/>
-      <c r="FR1" s="5"/>
-      <c r="FS1" s="5"/>
-      <c r="FT1" s="5"/>
-      <c r="FU1" s="5"/>
-      <c r="FV1" s="5"/>
-      <c r="FW1" s="5"/>
-      <c r="FX1" s="5"/>
-      <c r="FY1" s="5"/>
-      <c r="FZ1" s="5"/>
-      <c r="GA1" s="5"/>
-      <c r="GB1" s="5"/>
-      <c r="GC1" s="5"/>
-      <c r="GD1" s="5"/>
-      <c r="GE1" s="5"/>
-      <c r="GF1" s="5"/>
-      <c r="GG1" s="5"/>
-      <c r="GH1" s="5"/>
-      <c r="GI1" s="5"/>
-      <c r="GJ1" s="5"/>
-      <c r="GK1" s="5"/>
-      <c r="GL1" s="5"/>
-      <c r="GM1" s="5"/>
-      <c r="GN1" s="5"/>
-      <c r="GO1" s="5"/>
-      <c r="GP1" s="5"/>
-      <c r="GQ1" s="5"/>
-      <c r="GR1" s="5"/>
-      <c r="GS1" s="5"/>
-      <c r="GT1" s="5"/>
-      <c r="GU1" s="5"/>
-      <c r="GV1" s="5"/>
-      <c r="GW1" s="5"/>
-      <c r="GX1" s="5"/>
-      <c r="GY1" s="5"/>
-      <c r="GZ1" s="5"/>
-      <c r="HA1" s="5"/>
-      <c r="HB1" s="5"/>
-      <c r="HC1" s="5"/>
-      <c r="HD1" s="5"/>
-      <c r="HE1" s="5"/>
-      <c r="HF1" s="5"/>
-      <c r="HG1" s="5"/>
-      <c r="HH1" s="5"/>
-      <c r="HI1" s="5"/>
-      <c r="HJ1" s="5"/>
-      <c r="HK1" s="5"/>
-      <c r="HL1" s="5"/>
-      <c r="HM1" s="5"/>
-      <c r="HN1" s="5"/>
-      <c r="HO1" s="5"/>
-      <c r="HP1" s="5"/>
-      <c r="HQ1" s="5"/>
-      <c r="HR1" s="5"/>
-      <c r="HS1" s="5"/>
-      <c r="HT1" s="5"/>
-      <c r="HU1" s="5"/>
-      <c r="HV1" s="5"/>
-      <c r="HW1" s="5"/>
-      <c r="HX1" s="5"/>
-      <c r="HY1" s="5"/>
-      <c r="HZ1" s="5"/>
-      <c r="IA1" s="5"/>
-      <c r="IB1" s="5"/>
-      <c r="IC1" s="5"/>
-      <c r="ID1" s="5"/>
-      <c r="IE1" s="5"/>
-      <c r="IF1" s="5"/>
-      <c r="IG1" s="5"/>
-      <c r="IH1" s="5"/>
-      <c r="II1" s="5"/>
-      <c r="IJ1" s="5"/>
-      <c r="IK1" s="5"/>
-      <c r="IL1" s="5"/>
-      <c r="IM1" s="5"/>
-      <c r="IN1" s="5"/>
-      <c r="IO1" s="5"/>
-      <c r="IP1" s="5"/>
-      <c r="IQ1" s="5"/>
-      <c r="IR1" s="5"/>
-      <c r="IS1" s="5"/>
-      <c r="IT1" s="5"/>
-      <c r="IU1" s="5"/>
-      <c r="IV1" s="5"/>
-      <c r="IW1" s="5"/>
-      <c r="IX1" s="5"/>
-      <c r="IY1" s="5"/>
-      <c r="IZ1" s="5"/>
-      <c r="JA1" s="5"/>
-      <c r="JB1" s="5"/>
-      <c r="JC1" s="5"/>
-      <c r="JD1" s="5"/>
-      <c r="JE1" s="5"/>
-      <c r="JF1" s="5"/>
-      <c r="JG1" s="5"/>
-      <c r="JH1" s="5"/>
-      <c r="JI1" s="5"/>
-      <c r="JJ1" s="5"/>
-      <c r="JK1" s="5"/>
-      <c r="JL1" s="5"/>
-      <c r="JM1" s="5"/>
-      <c r="JN1" s="5"/>
-      <c r="JO1" s="5"/>
-      <c r="JP1" s="5"/>
-      <c r="JQ1" s="5"/>
-      <c r="JR1" s="5"/>
-      <c r="JS1" s="5"/>
-      <c r="JT1" s="5"/>
-      <c r="JU1" s="5"/>
-      <c r="JV1" s="5"/>
-      <c r="JW1" s="5"/>
-      <c r="JX1" s="5"/>
-      <c r="JY1" s="5"/>
-      <c r="JZ1" s="5"/>
-      <c r="KA1" s="5"/>
-      <c r="KB1" s="5"/>
-      <c r="KC1" s="5"/>
-      <c r="KD1" s="5"/>
-      <c r="KE1" s="5"/>
-      <c r="KF1" s="5"/>
-      <c r="KG1" s="5"/>
-      <c r="KH1" s="5"/>
-      <c r="KI1" s="5"/>
-      <c r="KJ1" s="5"/>
-      <c r="KK1" s="5"/>
-      <c r="KL1" s="5"/>
-      <c r="KM1" s="5"/>
-      <c r="KN1" s="5"/>
-      <c r="KO1" s="5"/>
-      <c r="KP1" s="5"/>
-      <c r="KQ1" s="5"/>
-      <c r="KR1" s="5"/>
-      <c r="KS1" s="5"/>
-      <c r="KT1" s="5"/>
-      <c r="KU1" s="5"/>
-      <c r="KV1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
+      <c r="CH1" s="6"/>
+      <c r="CI1" s="6"/>
+      <c r="CJ1" s="6"/>
+      <c r="CK1" s="6"/>
+      <c r="CL1" s="6"/>
+      <c r="CM1" s="6"/>
+      <c r="CN1" s="6"/>
+      <c r="CO1" s="6"/>
+      <c r="CP1" s="6"/>
+      <c r="CQ1" s="6"/>
+      <c r="CR1" s="6"/>
+      <c r="CS1" s="6"/>
+      <c r="CT1" s="6"/>
+      <c r="CU1" s="6"/>
+      <c r="CV1" s="6"/>
+      <c r="CW1" s="6"/>
+      <c r="CX1" s="6"/>
+      <c r="CY1" s="6"/>
+      <c r="CZ1" s="6"/>
+      <c r="DA1" s="6"/>
+      <c r="DB1" s="6"/>
+      <c r="DC1" s="6"/>
+      <c r="DD1" s="6"/>
+      <c r="DE1" s="6"/>
+      <c r="DF1" s="6"/>
+      <c r="DG1" s="6"/>
+      <c r="DH1" s="6"/>
+      <c r="DI1" s="6"/>
+      <c r="DJ1" s="6"/>
+      <c r="DK1" s="6"/>
+      <c r="DL1" s="6"/>
+      <c r="DM1" s="6"/>
+      <c r="DN1" s="6"/>
+      <c r="DO1" s="6"/>
+      <c r="DP1" s="6"/>
+      <c r="DQ1" s="6"/>
+      <c r="DR1" s="6"/>
+      <c r="DS1" s="6"/>
+      <c r="DT1" s="6"/>
+      <c r="DU1" s="6"/>
+      <c r="DV1" s="6"/>
+      <c r="DW1" s="6"/>
+      <c r="DX1" s="6"/>
+      <c r="DY1" s="6"/>
+      <c r="DZ1" s="6"/>
+      <c r="EA1" s="6"/>
+      <c r="EB1" s="6"/>
+      <c r="EC1" s="6"/>
+      <c r="ED1" s="6"/>
+      <c r="EE1" s="6"/>
+      <c r="EF1" s="6"/>
+      <c r="EG1" s="6"/>
+      <c r="EH1" s="6"/>
+      <c r="EI1" s="6"/>
+      <c r="EJ1" s="6"/>
+      <c r="EK1" s="6"/>
+      <c r="EL1" s="6"/>
+      <c r="EM1" s="6"/>
+      <c r="EN1" s="6"/>
+      <c r="EO1" s="6"/>
+      <c r="EP1" s="6"/>
+      <c r="EQ1" s="6"/>
+      <c r="ER1" s="6"/>
+      <c r="ES1" s="6"/>
+      <c r="ET1" s="6"/>
+      <c r="EU1" s="6"/>
+      <c r="EV1" s="6"/>
+      <c r="EW1" s="6"/>
+      <c r="EX1" s="6"/>
+      <c r="EY1" s="6"/>
+      <c r="EZ1" s="6"/>
+      <c r="FA1" s="6"/>
+      <c r="FB1" s="6"/>
+      <c r="FC1" s="6"/>
+      <c r="FD1" s="6"/>
+      <c r="FE1" s="6"/>
+      <c r="FF1" s="6"/>
+      <c r="FG1" s="6"/>
+      <c r="FH1" s="6"/>
+      <c r="FI1" s="6"/>
+      <c r="FJ1" s="6"/>
+      <c r="FK1" s="6"/>
+      <c r="FL1" s="6"/>
+      <c r="FM1" s="6"/>
+      <c r="FN1" s="6"/>
+      <c r="FO1" s="6"/>
+      <c r="FP1" s="6"/>
+      <c r="FQ1" s="6"/>
+      <c r="FR1" s="6"/>
+      <c r="FS1" s="6"/>
+      <c r="FT1" s="6"/>
+      <c r="FU1" s="6"/>
+      <c r="FV1" s="6"/>
+      <c r="FW1" s="6"/>
+      <c r="FX1" s="6"/>
+      <c r="FY1" s="6"/>
+      <c r="FZ1" s="6"/>
+      <c r="GA1" s="6"/>
+      <c r="GB1" s="6"/>
+      <c r="GC1" s="6"/>
+      <c r="GD1" s="6"/>
+      <c r="GE1" s="6"/>
+      <c r="GF1" s="6"/>
+      <c r="GG1" s="6"/>
+      <c r="GH1" s="6"/>
+      <c r="GI1" s="6"/>
+      <c r="GJ1" s="6"/>
+      <c r="GK1" s="6"/>
+      <c r="GL1" s="6"/>
+      <c r="GM1" s="6"/>
+      <c r="GN1" s="6"/>
+      <c r="GO1" s="6"/>
+      <c r="GP1" s="6"/>
+      <c r="GQ1" s="6"/>
+      <c r="GR1" s="6"/>
+      <c r="GS1" s="6"/>
+      <c r="GT1" s="6"/>
+      <c r="GU1" s="6"/>
+      <c r="GV1" s="6"/>
+      <c r="GW1" s="6"/>
+      <c r="GX1" s="6"/>
+      <c r="GY1" s="6"/>
+      <c r="GZ1" s="6"/>
+      <c r="HA1" s="6"/>
+      <c r="HB1" s="6"/>
+      <c r="HC1" s="6"/>
+      <c r="HD1" s="6"/>
+      <c r="HE1" s="6"/>
+      <c r="HF1" s="6"/>
+      <c r="HG1" s="6"/>
+      <c r="HH1" s="6"/>
+      <c r="HI1" s="6"/>
+      <c r="HJ1" s="6"/>
+      <c r="HK1" s="6"/>
+      <c r="HL1" s="6"/>
+      <c r="HM1" s="6"/>
+      <c r="HN1" s="6"/>
+      <c r="HO1" s="6"/>
+      <c r="HP1" s="6"/>
+      <c r="HQ1" s="6"/>
+      <c r="HR1" s="6"/>
+      <c r="HS1" s="6"/>
+      <c r="HT1" s="6"/>
+      <c r="HU1" s="6"/>
+      <c r="HV1" s="6"/>
+      <c r="HW1" s="6"/>
+      <c r="HX1" s="6"/>
+      <c r="HY1" s="6"/>
+      <c r="HZ1" s="6"/>
+      <c r="IA1" s="6"/>
+      <c r="IB1" s="6"/>
+      <c r="IC1" s="6"/>
+      <c r="ID1" s="6"/>
+      <c r="IE1" s="6"/>
+      <c r="IF1" s="6"/>
+      <c r="IG1" s="6"/>
+      <c r="IH1" s="6"/>
+      <c r="II1" s="6"/>
+      <c r="IJ1" s="6"/>
+      <c r="IK1" s="6"/>
+      <c r="IL1" s="6"/>
+      <c r="IM1" s="6"/>
+      <c r="IN1" s="6"/>
+      <c r="IO1" s="6"/>
+      <c r="IP1" s="6"/>
+      <c r="IQ1" s="6"/>
+      <c r="IR1" s="6"/>
+      <c r="IS1" s="6"/>
+      <c r="IT1" s="6"/>
+      <c r="IU1" s="6"/>
+      <c r="IV1" s="6"/>
+      <c r="IW1" s="6"/>
+      <c r="IX1" s="6"/>
+      <c r="IY1" s="6"/>
+      <c r="IZ1" s="6"/>
+      <c r="JA1" s="6"/>
+      <c r="JB1" s="6"/>
+      <c r="JC1" s="6"/>
+      <c r="JD1" s="6"/>
+      <c r="JE1" s="6"/>
+      <c r="JF1" s="6"/>
+      <c r="JG1" s="6"/>
+      <c r="JH1" s="6"/>
+      <c r="JI1" s="6"/>
+      <c r="JJ1" s="6"/>
+      <c r="JK1" s="6"/>
+      <c r="JL1" s="6"/>
+      <c r="JM1" s="6"/>
+      <c r="JN1" s="6"/>
+      <c r="JO1" s="6"/>
+      <c r="JP1" s="6"/>
+      <c r="JQ1" s="6"/>
+      <c r="JR1" s="6"/>
+      <c r="JS1" s="6"/>
+      <c r="JT1" s="6"/>
+      <c r="JU1" s="6"/>
+      <c r="JV1" s="6"/>
+      <c r="JW1" s="6"/>
+      <c r="JX1" s="6"/>
+      <c r="JY1" s="6"/>
+      <c r="JZ1" s="6"/>
+      <c r="KA1" s="6"/>
+      <c r="KB1" s="6"/>
+      <c r="KC1" s="6"/>
+      <c r="KD1" s="6"/>
+      <c r="KE1" s="6"/>
+      <c r="KF1" s="6"/>
+      <c r="KG1" s="6"/>
+      <c r="KH1" s="6"/>
+      <c r="KI1" s="6"/>
+      <c r="KJ1" s="6"/>
+      <c r="KK1" s="6"/>
+      <c r="KL1" s="6"/>
+      <c r="KM1" s="6"/>
+      <c r="KN1" s="6"/>
+      <c r="KO1" s="6"/>
+      <c r="KP1" s="6"/>
+      <c r="KQ1" s="6"/>
+      <c r="KR1" s="6"/>
+      <c r="KS1" s="6"/>
+      <c r="KT1" s="6"/>
+      <c r="KU1" s="6"/>
+      <c r="KV1" s="6"/>
     </row>
-    <row r="2" spans="1:308" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:308" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1759,13 +1763,13 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AG2" s="1" t="s">
@@ -1774,49 +1778,49 @@
       <c r="AH2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AY2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BO2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CQ2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="DI2" s="6" t="s">
+      <c r="DI2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DJ2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="ED2" s="1" t="s">
+      <c r="ED2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="EL2" s="1" t="s">
+      <c r="EL2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="FF2" s="1" t="s">
+      <c r="FF2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="GH2" s="1" t="s">
+      <c r="GH2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="HB2" s="1" t="s">
+      <c r="HB2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="HN2" s="1" t="s">
+      <c r="HN2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="ID2" s="1" t="s">
+      <c r="ID2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="JJ2" s="1" t="s">
+      <c r="JJ2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="JR2" s="1" t="s">
+      <c r="JR2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="KT2" s="1" t="s">

--- a/Background/LHQ3/LHQ3 results raw.xlsx
+++ b/Background/LHQ3/LHQ3 results raw.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="19" documentId="11_1BCBA99251AA9A10B0C00D2B08C520B8B10C58C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6FCBD80-A7C4-4404-8874-5F6410DABFEE}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1148,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KO2" workbookViewId="0">
-      <selection activeCell="JR2" sqref="JR2"/>
+    <sheetView tabSelected="1" topLeftCell="KQ2" workbookViewId="0">
+      <selection activeCell="LC2" sqref="LC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
